--- a/examples/1d_sill_input_utgard.xlsx
+++ b/examples/1d_sill_input_utgard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\devel\sill_1d\src\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\GMS\karthik_stuff\SILLi-master\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="24240" windowHeight="13110" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Density (kg/m3)</t>
   </si>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -527,8 +527,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -538,9 +541,15 @@
       <c r="C2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
@@ -555,7 +564,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
